--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801E940-8920-4936-B15A-C97D2279FABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28345" windowHeight="14897"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -20,81 +14,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>颜色Id</t>
+  </si>
+  <si>
+    <t>颜色值</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>ColorId</t>
+  </si>
+  <si>
+    <t>ColorValue</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>颜色Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColorId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColorValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>255,0,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
   </si>
   <si>
     <t>0,255,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0,0,255</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>255,255,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0,255,255</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>255,0,255</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -110,29 +108,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +272,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -154,9 +467,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -167,34 +722,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -481,143 +1080,166 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="O15" sqref="F16 O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6306306306306" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.9099099099099" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="5:7">
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:6">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="3:6" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    <row r="10" spans="3:6">
+      <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
+    <row r="11" spans="3:6">
+      <c r="C11" s="8">
         <v>6</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="3:6" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D11" s="8">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>c</t>
   </si>
@@ -37,10 +37,22 @@
     <t>图片</t>
   </si>
   <si>
+    <t>增加的攻击值</t>
+  </si>
+  <si>
+    <t>增加的怒气值</t>
+  </si>
+  <si>
     <t>ColorId</t>
   </si>
   <si>
     <t>ColorValue</t>
+  </si>
+  <si>
+    <t>AddAttack</t>
+  </si>
+  <si>
+    <t>AddAngry</t>
   </si>
   <si>
     <t>int</t>
@@ -76,23 +88,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -108,11 +114,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -131,21 +137,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,9 +174,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,36 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -230,6 +222,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,16 +244,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +472,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,17 +521,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,9 +541,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,27 +564,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,137 +582,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,20 +721,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,13 +1075,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:G11"/>
+  <dimension ref="C2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="F16 O15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
   <cols>
     <col min="1" max="1" width="21.0900900900901" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7297297297297" style="2" customWidth="1"/>
@@ -1102,139 +1091,195 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:7">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="3:9">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="3:9">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6"/>
+    <row r="5" spans="3:9">
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
+    <row r="6" s="1" customFormat="1" spans="3:9">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="8">
+    <row r="7" spans="3:9">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="8">
+    <row r="8" spans="3:9">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>12</v>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="8">
+    <row r="9" spans="3:9">
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>4</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="8">
+    <row r="10" spans="3:9">
+      <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>12</v>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="8">
+    <row r="11" spans="3:9">
+      <c r="C11" s="5">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>6</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>12</v>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>c</t>
   </si>
@@ -43,6 +43,9 @@
     <t>增加的怒气值</t>
   </si>
   <si>
+    <t>颜色描述</t>
+  </si>
+  <si>
     <t>ColorId</t>
   </si>
   <si>
@@ -55,31 +58,46 @@
     <t>AddAngry</t>
   </si>
   <si>
+    <t>Des</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>255,0,0</t>
+    <t>ff0000</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t>0,255,0</t>
-  </si>
-  <si>
-    <t>0,0,255</t>
-  </si>
-  <si>
-    <t>255,255,0</t>
-  </si>
-  <si>
-    <t>0,255,255</t>
-  </si>
-  <si>
-    <t>255,0,255</t>
+    <t>红</t>
+  </si>
+  <si>
+    <t>fff600</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>00ff18</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>0012ff</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>fc00ff</t>
+  </si>
+  <si>
+    <t>紫</t>
   </si>
 </sst>
 </file>
@@ -87,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -115,14 +133,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,75 +238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -213,6 +246,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -220,39 +269,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,187 +291,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,24 +487,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +521,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -517,35 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,16 +573,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:I11"/>
+  <dimension ref="C2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85"/>
@@ -1090,7 +1108,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:7">
+    <row r="2" spans="5:10">
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1100,8 +1118,11 @@
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" spans="3:10">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1123,46 +1144,55 @@
       <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" spans="3:10">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" spans="3:10">
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:9">
+    <row r="6" s="1" customFormat="1" spans="3:10">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1170,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -1181,8 +1211,11 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="3:10">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -1190,10 +1223,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -1201,8 +1234,11 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="3:9">
+    <row r="8" spans="3:10">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -1210,19 +1246,22 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="3:10">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -1230,10 +1269,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -1241,8 +1280,11 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="3:9">
+    <row r="10" spans="3:10">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -1250,37 +1292,28 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7BB8CB-BFE0-4A96-BA1C-D57E13BBF40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3331A151-6A75-4988-A189-7B077EAAD2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="30920" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -174,10 +184,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ModeName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -269,6 +275,10 @@
   </si>
   <si>
     <t>#FFFF03</t>
+  </si>
+  <si>
+    <t>TextureName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -807,7 +817,7 @@
   <dimension ref="C2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -864,7 +874,7 @@
         <v>44</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
@@ -889,10 +899,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
@@ -917,10 +927,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
@@ -1051,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>18</v>
@@ -1081,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>18</v>
@@ -1111,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>18</v>
@@ -1141,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>18</v>
@@ -1171,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>18</v>
@@ -1201,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>18</v>
@@ -1231,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>18</v>
@@ -1261,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>18</v>
@@ -1291,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>18</v>
@@ -1321,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>18</v>
@@ -1351,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>18</v>
@@ -1381,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>18</v>
@@ -1411,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>18</v>
@@ -1441,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>18</v>
@@ -1471,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>18</v>
@@ -1501,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>18</v>
@@ -1543,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L26" s="3">
         <v>4</v>
@@ -1560,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>18</v>
@@ -1572,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="3">
         <v>4</v>
@@ -1589,7 +1599,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>18</v>
@@ -1601,10 +1611,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L28" s="3">
         <v>4</v>
@@ -1618,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>18</v>
@@ -1630,10 +1640,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L29" s="3">
         <v>4</v>
@@ -1647,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>18</v>
@@ -1659,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L30" s="3">
         <v>4</v>

--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3331A151-6A75-4988-A189-7B077EAAD2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A56BB6-BF71-49E0-A75B-F8E6585A0FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="110">
   <si>
     <t>c</t>
   </si>
@@ -47,9 +47,6 @@
     <t>颜色值</t>
   </si>
   <si>
-    <t>效果</t>
-  </si>
-  <si>
     <t>图片</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>ff0000</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>红</t>
   </si>
   <si>
@@ -279,13 +273,153 @@
   <si>
     <t>TextureName</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabRes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制体资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Res/Element/Elemenet_water.prefab</t>
+  </si>
+  <si>
+    <t>元素描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Res/Element/Elemenet_fire.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Element/Elemenet_dark.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Element/Elemenet_wind.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Element/Elemenet_light.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_huo_feixing.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_an_feixing.prefab</t>
+  </si>
+  <si>
+    <t>飞行特效攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行特效攻击怒气</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyEffectAttackRes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_shui_feixing.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_feng_feixing.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_guang_feixing.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_huo_feixing.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyEffectAngryRes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestoryEffectRes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_huo_shouji.prefab</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_an_shouji.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_shui_shouji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_feng_shouji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_guang_shouji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_huo_daiji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_dian_daiji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_dian_shifang_zong.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_dian_shifang_heng.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_heidong_daiji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_heidong_shifang.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +480,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -814,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:L30"/>
+  <dimension ref="C2:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -825,18 +965,23 @@
     <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="53.453125" style="2" customWidth="1"/>
     <col min="7" max="10" width="9" style="2"/>
     <col min="11" max="11" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="12" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="46.54296875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="68.36328125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.453125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.35">
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
@@ -844,8 +989,20 @@
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="K2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -856,95 +1013,140 @@
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="K3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="M3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8">
@@ -954,16 +1156,28 @@
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" ht="15" x14ac:dyDescent="0.35">
       <c r="C7" s="7">
         <v>2</v>
       </c>
@@ -971,11 +1185,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="9"/>
       <c r="H7" s="8">
         <v>1</v>
@@ -984,16 +1196,28 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L7" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="7">
         <v>3</v>
       </c>
@@ -1001,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8">
@@ -1014,16 +1238,28 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L8" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" ht="15" x14ac:dyDescent="0.35">
       <c r="C9" s="7">
         <v>4</v>
       </c>
@@ -1031,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8">
@@ -1044,16 +1280,28 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L9" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="11">
         <v>5</v>
       </c>
@@ -1061,10 +1309,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="13">
@@ -1074,16 +1322,28 @@
         <v>1</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="11">
         <v>6</v>
       </c>
@@ -1091,11 +1351,9 @@
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13">
         <v>1</v>
@@ -1104,16 +1362,28 @@
         <v>1</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L11" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="11">
         <v>7</v>
       </c>
@@ -1121,10 +1391,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13">
@@ -1134,16 +1404,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="11">
         <v>8</v>
       </c>
@@ -1151,10 +1433,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="13">
@@ -1164,16 +1446,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L13" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" ht="15" x14ac:dyDescent="0.35">
       <c r="C14" s="15">
         <v>9</v>
       </c>
@@ -1181,10 +1475,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18">
@@ -1194,16 +1488,28 @@
         <v>1</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="15">
         <v>10</v>
       </c>
@@ -1211,11 +1517,9 @@
         <v>3</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>18</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F15" s="15"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18">
         <v>1</v>
@@ -1224,16 +1528,28 @@
         <v>1</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="15">
         <v>11</v>
       </c>
@@ -1241,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18">
@@ -1254,16 +1570,28 @@
         <v>1</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L16" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C17" s="15">
         <v>12</v>
       </c>
@@ -1271,10 +1599,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18">
@@ -1284,16 +1612,28 @@
         <v>1</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L17" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C18" s="19">
         <v>13</v>
       </c>
@@ -1301,10 +1641,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="23">
@@ -1314,16 +1654,28 @@
         <v>1</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L18" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="19">
         <v>14</v>
       </c>
@@ -1331,11 +1683,9 @@
         <v>4</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>18</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F19" s="19"/>
       <c r="G19" s="22"/>
       <c r="H19" s="23">
         <v>1</v>
@@ -1344,16 +1694,28 @@
         <v>1</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L19" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="19">
         <v>15</v>
       </c>
@@ -1361,10 +1723,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="23">
@@ -1374,16 +1736,28 @@
         <v>1</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C21" s="19">
         <v>16</v>
       </c>
@@ -1391,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="23">
@@ -1404,16 +1778,28 @@
         <v>1</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L21" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C22" s="24">
         <v>17</v>
       </c>
@@ -1421,10 +1807,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="28">
@@ -1434,16 +1820,28 @@
         <v>1</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L22" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="24">
         <v>18</v>
       </c>
@@ -1451,11 +1849,9 @@
         <v>5</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>18</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F23" s="24"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28">
         <v>1</v>
@@ -1464,16 +1860,28 @@
         <v>1</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L23" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C24" s="24">
         <v>19</v>
       </c>
@@ -1481,10 +1889,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="28">
@@ -1494,16 +1902,28 @@
         <v>1</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L24" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="N24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" ht="15" x14ac:dyDescent="0.35">
       <c r="C25" s="24">
         <v>20</v>
       </c>
@@ -1511,10 +1931,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="28">
@@ -1524,16 +1944,28 @@
         <v>1</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L25" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" ht="14" x14ac:dyDescent="0.35">
+      <c r="N25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" ht="14" x14ac:dyDescent="0.35">
       <c r="C26" s="3">
         <v>21</v>
       </c>
@@ -1541,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="H26" s="6">
         <v>1</v>
@@ -1553,16 +1985,30 @@
         <v>1</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L26" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" ht="14" x14ac:dyDescent="0.35">
+      <c r="N26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="3:19" ht="14" x14ac:dyDescent="0.35">
       <c r="C27" s="3">
         <v>22</v>
       </c>
@@ -1570,10 +2016,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="H27" s="6">
         <v>1</v>
@@ -1582,16 +2028,28 @@
         <v>1</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L27" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" ht="14" x14ac:dyDescent="0.35">
+      <c r="N27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" ht="14" x14ac:dyDescent="0.35">
       <c r="C28" s="3">
         <v>23</v>
       </c>
@@ -1599,10 +2057,10 @@
         <v>3</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="H28" s="6">
         <v>1</v>
@@ -1611,16 +2069,28 @@
         <v>1</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" ht="14" x14ac:dyDescent="0.35">
+      <c r="N28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" ht="14" x14ac:dyDescent="0.35">
       <c r="C29" s="3">
         <v>24</v>
       </c>
@@ -1628,10 +2098,10 @@
         <v>4</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="H29" s="6">
         <v>1</v>
@@ -1640,16 +2110,28 @@
         <v>1</v>
       </c>
       <c r="J29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L29" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" ht="14" x14ac:dyDescent="0.35">
+      <c r="N29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" ht="14" x14ac:dyDescent="0.35">
       <c r="C30" s="3">
         <v>25</v>
       </c>
@@ -1657,10 +2139,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
@@ -1669,13 +2151,25 @@
         <v>1</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L30" s="3">
         <v>4</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A56BB6-BF71-49E0-A75B-F8E6585A0FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A073A818-4A56-4951-841C-5BEB452B657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="112">
   <si>
     <t>c</t>
   </si>
@@ -413,6 +413,13 @@
   </si>
   <si>
     <t>Assets/Effects/SanXiao/prefabs/effect_heidong_shifang.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_huo_daiji.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effects/SanXiao/prefabs/effect_huo_shifang.prefab</t>
   </si>
 </sst>
 </file>
@@ -956,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1187,7 +1194,9 @@
       <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8">
         <v>1</v>
@@ -1353,7 +1362,9 @@
       <c r="E11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="13">
         <v>1</v>
@@ -1370,8 +1381,8 @@
       <c r="L11" s="14">
         <v>1</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>83</v>
+      <c r="N11" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>78</v>
@@ -1519,7 +1530,9 @@
       <c r="E15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="18">
         <v>1</v>
@@ -1536,8 +1549,8 @@
       <c r="L15" s="16">
         <v>1</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>74</v>
+      <c r="N15" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>79</v>
@@ -1685,7 +1698,9 @@
       <c r="E19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="G19" s="22"/>
       <c r="H19" s="23">
         <v>1</v>
@@ -1702,8 +1717,8 @@
       <c r="L19" s="20">
         <v>1</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>84</v>
+      <c r="N19" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>80</v>
@@ -1851,7 +1866,9 @@
       <c r="E23" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="24"/>
+      <c r="F23" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="G23" s="27"/>
       <c r="H23" s="28">
         <v>1</v>
@@ -1868,8 +1885,8 @@
       <c r="L23" s="25">
         <v>1</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>85</v>
+      <c r="N23" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>81</v>

--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15400"/>
+    <workbookView windowHeight="22400"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <t>Assets/Effects/SanXiao/prefabs/effect_huo_feixing.prefab</t>
   </si>
   <si>
-    <t>Assets/Res/Audios/cut_bombL型爆炸.mp3</t>
+    <t>Assets/Res/Audios/十字火焰爆炸-快.wav</t>
   </si>
   <si>
     <t>Assets/Effects/SanXiao/prefabs/effect_huo_shifang.prefab</t>
@@ -151,7 +151,7 @@
     <t>Assets/Effects/SanXiao/prefabs/effect_huo_daiji.prefab</t>
   </si>
   <si>
-    <t>Assets/Res/Audios/雷电爆炸.mp3</t>
+    <t>Assets/Res/Audios/四消雷电.wav</t>
   </si>
   <si>
     <t>Assets/Effects/SanXiao/prefabs/effect_dian_shifang_heng.prefab</t>
@@ -325,7 +325,7 @@
     <t>item_06_stripes_vert</t>
   </si>
   <si>
-    <t>Assets/Res/Audios/黑洞.mp3</t>
+    <t>Assets/Res/Audios/黑洞.wav</t>
   </si>
   <si>
     <t>Assets/Effects/SanXiao/prefabs/effect_heidong_shifang.prefab</t>
@@ -342,10 +342,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -391,7 +391,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,18 +412,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,18 +436,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,23 +461,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,25 +484,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -558,37 +558,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,115 +678,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,8 +740,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,47 +757,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,7 +779,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -834,97 +819,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,49 +936,49 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1413,7 +1413,7 @@
   <dimension ref="C2:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1422,7 +1422,7 @@
     <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6346153846154" style="3" customWidth="1"/>
     <col min="6" max="6" width="45.9807692307692" style="3" customWidth="1"/>
-    <col min="7" max="7" width="53.4519230769231" style="2" customWidth="1"/>
+    <col min="7" max="7" width="65.5384615384615" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.9903846153846" style="2" customWidth="1"/>
     <col min="9" max="11" width="9" style="2"/>
     <col min="12" max="12" width="36.5384615384615" style="2" customWidth="1"/>
@@ -1619,7 +1619,7 @@
         <v>35</v>
       </c>
       <c r="H6" s="13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I6" s="13">
         <v>1</v>
@@ -1666,7 +1666,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I7" s="13">
         <v>1</v>
@@ -1805,7 +1805,7 @@
         <v>52</v>
       </c>
       <c r="H10" s="13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I10" s="21">
         <v>1</v>
@@ -1852,7 +1852,7 @@
         <v>42</v>
       </c>
       <c r="H11" s="13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I11" s="21">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>65</v>
       </c>
       <c r="H14" s="13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I14" s="24">
         <v>1</v>
@@ -2038,7 +2038,7 @@
         <v>42</v>
       </c>
       <c r="H15" s="13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I15" s="24">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         <v>78</v>
       </c>
       <c r="H18" s="13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I18" s="26">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>42</v>
       </c>
       <c r="H19" s="13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I19" s="26">
         <v>1</v>
@@ -2363,7 +2363,7 @@
         <v>91</v>
       </c>
       <c r="H22" s="13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I22" s="28">
         <v>1</v>
@@ -2410,7 +2410,7 @@
         <v>42</v>
       </c>
       <c r="H23" s="13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I23" s="28">
         <v>1</v>

--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -154,7 +154,7 @@
     <t>Assets/Res/Audios/四消雷电.wav</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_dian_shifang_heng.prefab</t>
+    <t>Assets/Effects/SanXiao/prefabs/effect_dian_shifang01.prefab</t>
   </si>
   <si>
     <t>item_01_stripes_horiz</t>
@@ -163,7 +163,7 @@
     <t>Assets/Effects/SanXiao/prefabs/effect_dian_daiji.prefab</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_dian_shifang_zong.prefab</t>
+    <t>Assets/Effects/SanXiao/prefabs/effect_dian_shifang02.prefab</t>
   </si>
   <si>
     <t>item_01_stripes_vert</t>
@@ -343,8 +343,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -397,6 +397,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -406,7 +421,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,70 +499,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,22 +512,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -570,145 +570,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,15 +733,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,11 +767,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,120 +828,94 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,52 +924,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,7 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="106">
   <si>
     <t>c</t>
   </si>
@@ -121,7 +121,7 @@
     <t>ff0000</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_huo_shouji.prefab</t>
+    <t>effect_huo_shouji</t>
   </si>
   <si>
     <t>红</t>
@@ -136,34 +136,31 @@
     <t>火</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_huo_feixing.prefab</t>
+    <t>effect_huo_feixing</t>
   </si>
   <si>
     <t>Assets/Res/Audios/十字火焰爆炸-快.wav</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_huo_shifang.prefab</t>
+    <t>effect_huo_shifang</t>
   </si>
   <si>
     <t>item_01_extra</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_huo_daiji.prefab</t>
+    <t>effect_huo_daiji</t>
   </si>
   <si>
     <t>Assets/Res/Audios/四消雷电.wav</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_dian_shifang01.prefab</t>
+    <t>effect_dian_shifang01</t>
   </si>
   <si>
     <t>item_01_stripes_horiz</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_dian_daiji.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_dian_shifang02.prefab</t>
+    <t>effect_dian_daiji</t>
   </si>
   <si>
     <t>item_01_stripes_vert</t>
@@ -172,7 +169,7 @@
     <t>#C71585</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_an_shouji.prefab</t>
+    <t>effect_an_shouji</t>
   </si>
   <si>
     <t>紫</t>
@@ -187,7 +184,7 @@
     <t>暗</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_an_feixing.prefab</t>
+    <t>effect_an_feixing</t>
   </si>
   <si>
     <t>#C71586</t>
@@ -211,7 +208,7 @@
     <t xml:space="preserve">	#0000CD</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_shui_shouji.prefab</t>
+    <t>effect_shui_shouji</t>
   </si>
   <si>
     <t>蓝</t>
@@ -226,7 +223,7 @@
     <t>水</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_shui_feixing.prefab</t>
+    <t>effect_shui_feixing</t>
   </si>
   <si>
     <t xml:space="preserve">	#0001CD</t>
@@ -250,7 +247,7 @@
     <t>#00FA9A</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_feng_shouji.prefab</t>
+    <t>effect_feng_shouji</t>
   </si>
   <si>
     <t>绿</t>
@@ -265,7 +262,7 @@
     <t>风</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_feng_feixing.prefab</t>
+    <t>effect_feng_feixing</t>
   </si>
   <si>
     <t>#00FA10A</t>
@@ -289,7 +286,7 @@
     <t>#FFFF00</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_guang_shouji.prefab</t>
+    <t>effect_guang_shouji</t>
   </si>
   <si>
     <t>黄</t>
@@ -304,7 +301,7 @@
     <t>光</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_guang_feixing.prefab</t>
+    <t>effect_guang_feixing</t>
   </si>
   <si>
     <t>#FFFF01</t>
@@ -328,13 +325,13 @@
     <t>Assets/Res/Audios/黑洞.wav</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_heidong_shifang.prefab</t>
+    <t>effect_heidong_shifang</t>
   </si>
   <si>
     <t>candy10_choco</t>
   </si>
   <si>
-    <t>Assets/Effects/SanXiao/prefabs/effect_heidong_daiji.prefab</t>
+    <t>effect_heidong_daiji</t>
   </si>
 </sst>
 </file>
@@ -342,8 +339,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -391,14 +388,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,21 +431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -435,32 +439,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,25 +465,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,10 +502,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -558,19 +555,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +639,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,121 +675,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,6 +735,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -748,6 +769,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,17 +803,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,41 +827,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -837,152 +834,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,6 +1056,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="17" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1413,7 +1413,7 @@
   <dimension ref="C2:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1757,7 +1757,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H9" s="13">
         <v>500</v>
@@ -1772,7 +1772,7 @@
         <v>36</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="19">
         <v>3</v>
@@ -1798,11 +1798,11 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="13">
         <v>500</v>
@@ -1814,25 +1814,25 @@
         <v>1</v>
       </c>
       <c r="K10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="22">
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="Q10" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>57</v>
+      <c r="R10" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="16.8" spans="3:18">
@@ -1843,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>41</v>
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="22">
         <v>1</v>
@@ -1873,13 +1873,13 @@
         <v>44</v>
       </c>
       <c r="P11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>57</v>
+      <c r="R11" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" ht="16.8" spans="3:18">
@@ -1890,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>45</v>
@@ -1908,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M12" s="22">
         <v>2</v>
@@ -1920,13 +1920,13 @@
         <v>48</v>
       </c>
       <c r="P12" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>57</v>
+      <c r="R12" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="16.8" spans="3:18">
@@ -1937,13 +1937,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H13" s="13">
         <v>500</v>
@@ -1955,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M13" s="22">
         <v>3</v>
@@ -1967,13 +1967,13 @@
         <v>48</v>
       </c>
       <c r="P13" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>57</v>
+      <c r="R13" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" ht="16.8" spans="3:18">
@@ -1984,11 +1984,11 @@
         <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="13">
         <v>500</v>
@@ -2000,25 +2000,25 @@
         <v>1</v>
       </c>
       <c r="K14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M14" s="8">
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="30" t="s">
+      <c r="Q14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>70</v>
+      <c r="R14" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" ht="16.8" spans="3:18">
@@ -2029,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>41</v>
@@ -2047,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M15" s="8">
         <v>1</v>
@@ -2059,13 +2059,13 @@
         <v>44</v>
       </c>
       <c r="P15" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>70</v>
+      <c r="R15" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="16.8" spans="3:18">
@@ -2076,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M16" s="8">
         <v>2</v>
@@ -2106,13 +2106,13 @@
         <v>48</v>
       </c>
       <c r="P16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>70</v>
+      <c r="R16" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="16.8" spans="3:18">
@@ -2123,13 +2123,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H17" s="13">
         <v>500</v>
@@ -2141,10 +2141,10 @@
         <v>1</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M17" s="8">
         <v>3</v>
@@ -2153,13 +2153,13 @@
         <v>48</v>
       </c>
       <c r="P17" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>70</v>
+      <c r="R17" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="17" spans="3:18">
@@ -2170,11 +2170,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="13">
         <v>500</v>
@@ -2186,25 +2186,25 @@
         <v>1</v>
       </c>
       <c r="K18" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="M18" s="10">
         <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="30" t="s">
+      <c r="Q18" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>83</v>
+      <c r="R18" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" ht="17" spans="3:18">
@@ -2215,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>41</v>
@@ -2233,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19" s="10">
         <v>1</v>
@@ -2245,13 +2245,13 @@
         <v>44</v>
       </c>
       <c r="P19" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>83</v>
+      <c r="R19" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="17" spans="3:18">
@@ -2262,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>45</v>
@@ -2280,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M20" s="10">
         <v>2</v>
@@ -2292,13 +2292,13 @@
         <v>48</v>
       </c>
       <c r="P20" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>83</v>
+      <c r="R20" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="17" spans="3:18">
@@ -2309,13 +2309,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H21" s="13">
         <v>500</v>
@@ -2327,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M21" s="10">
         <v>3</v>
@@ -2339,13 +2339,13 @@
         <v>48</v>
       </c>
       <c r="P21" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>83</v>
+      <c r="R21" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" ht="17" spans="3:18">
@@ -2356,11 +2356,11 @@
         <v>5</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="13">
         <v>500</v>
@@ -2372,25 +2372,25 @@
         <v>1</v>
       </c>
       <c r="K22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="M22" s="12">
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="P22" s="30" t="s">
+      <c r="Q22" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>96</v>
+      <c r="R22" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="17" spans="3:18">
@@ -2401,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>41</v>
@@ -2419,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M23" s="12">
         <v>1</v>
@@ -2431,13 +2431,13 @@
         <v>44</v>
       </c>
       <c r="P23" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>96</v>
+      <c r="R23" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" ht="17" spans="3:18">
@@ -2448,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>45</v>
@@ -2466,10 +2466,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M24" s="12">
         <v>2</v>
@@ -2478,13 +2478,13 @@
         <v>48</v>
       </c>
       <c r="P24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q24" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>96</v>
+      <c r="R24" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" ht="17" spans="3:18">
@@ -2495,13 +2495,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H25" s="13">
         <v>500</v>
@@ -2513,10 +2513,10 @@
         <v>1</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M25" s="12">
         <v>3</v>
@@ -2525,13 +2525,13 @@
         <v>48</v>
       </c>
       <c r="P25" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>96</v>
+      <c r="R25" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" ht="16.8" spans="3:20">
@@ -2545,10 +2545,10 @@
         <v>34</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="H26" s="13">
         <v>2000</v>
@@ -2563,13 +2563,13 @@
         <v>36</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M26" s="3">
         <v>4</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P26" s="30" t="s">
         <v>39</v>
@@ -2591,13 +2591,13 @@
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="H27" s="13">
         <v>2000</v>
@@ -2609,25 +2609,25 @@
         <v>1</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M27" s="3">
         <v>4</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P27" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>57</v>
+      <c r="R27" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" ht="16.8" spans="3:18">
@@ -2638,13 +2638,13 @@
         <v>3</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="H28" s="13">
         <v>2000</v>
@@ -2656,25 +2656,25 @@
         <v>1</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M28" s="3">
         <v>4</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P28" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>70</v>
+      <c r="R28" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" ht="17" spans="3:18">
@@ -2685,13 +2685,13 @@
         <v>4</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="H29" s="13">
         <v>2000</v>
@@ -2703,25 +2703,25 @@
         <v>1</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M29" s="3">
         <v>4</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P29" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>83</v>
+      <c r="R29" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" ht="17" spans="3:18">
@@ -2732,13 +2732,13 @@
         <v>5</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="H30" s="13">
         <v>2000</v>
@@ -2750,25 +2750,25 @@
         <v>1</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M30" s="3">
         <v>4</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P30" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q30" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>96</v>
+      <c r="R30" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="107">
   <si>
     <t>c</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>effect_dian_daiji</t>
+  </si>
+  <si>
+    <t>effect_dian_shifang02</t>
   </si>
   <si>
     <t>item_01_stripes_vert</t>
@@ -388,16 +391,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,13 +420,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -431,17 +428,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,22 +461,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,13 +475,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -555,157 +558,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,17 +737,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,6 +794,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -802,184 +834,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,9 +1059,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="17" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1413,7 +1413,7 @@
   <dimension ref="C2:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G53" sqref="G25 G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1757,7 +1757,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H9" s="13">
         <v>500</v>
@@ -1772,7 +1772,7 @@
         <v>36</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="19">
         <v>3</v>
@@ -1798,11 +1798,11 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="13">
         <v>500</v>
@@ -1814,25 +1814,25 @@
         <v>1</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="22">
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="31" t="s">
-        <v>56</v>
+      <c r="Q10" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="16.8" spans="3:18">
@@ -1843,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>41</v>
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="22">
         <v>1</v>
@@ -1873,13 +1873,13 @@
         <v>44</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="31" t="s">
-        <v>56</v>
+      <c r="Q11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="16.8" spans="3:18">
@@ -1890,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>45</v>
@@ -1908,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="22">
         <v>2</v>
@@ -1920,13 +1920,13 @@
         <v>48</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="R12" s="31" t="s">
-        <v>56</v>
+      <c r="Q12" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" ht="16.8" spans="3:18">
@@ -1937,13 +1937,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H13" s="13">
         <v>500</v>
@@ -1955,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M13" s="22">
         <v>3</v>
@@ -1967,13 +1967,13 @@
         <v>48</v>
       </c>
       <c r="P13" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="31" t="s">
-        <v>56</v>
+      <c r="Q13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="16.8" spans="3:18">
@@ -1984,11 +1984,11 @@
         <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H14" s="13">
         <v>500</v>
@@ -2000,25 +2000,25 @@
         <v>1</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M14" s="8">
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="R14" s="31" t="s">
-        <v>69</v>
+      <c r="Q14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" ht="16.8" spans="3:18">
@@ -2029,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>41</v>
@@ -2047,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M15" s="8">
         <v>1</v>
@@ -2059,13 +2059,13 @@
         <v>44</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q15" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="R15" s="31" t="s">
-        <v>69</v>
+      <c r="Q15" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="16.8" spans="3:18">
@@ -2076,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M16" s="8">
         <v>2</v>
@@ -2106,13 +2106,13 @@
         <v>48</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="R16" s="31" t="s">
-        <v>69</v>
+      <c r="Q16" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="16.8" spans="3:18">
@@ -2123,13 +2123,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H17" s="13">
         <v>500</v>
@@ -2141,10 +2141,10 @@
         <v>1</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" s="8">
         <v>3</v>
@@ -2153,13 +2153,13 @@
         <v>48</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="R17" s="31" t="s">
-        <v>69</v>
+      <c r="Q17" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="17" spans="3:18">
@@ -2170,11 +2170,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" s="13">
         <v>500</v>
@@ -2186,25 +2186,25 @@
         <v>1</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M18" s="10">
         <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="R18" s="31" t="s">
-        <v>82</v>
+      <c r="Q18" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="17" spans="3:18">
@@ -2215,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>41</v>
@@ -2233,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M19" s="10">
         <v>1</v>
@@ -2245,13 +2245,13 @@
         <v>44</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="R19" s="31" t="s">
-        <v>82</v>
+      <c r="Q19" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="17" spans="3:18">
@@ -2262,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>45</v>
@@ -2280,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M20" s="10">
         <v>2</v>
@@ -2292,13 +2292,13 @@
         <v>48</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="31" t="s">
-        <v>82</v>
+      <c r="Q20" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="17" spans="3:18">
@@ -2309,13 +2309,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H21" s="13">
         <v>500</v>
@@ -2327,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M21" s="10">
         <v>3</v>
@@ -2339,13 +2339,13 @@
         <v>48</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q21" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="R21" s="31" t="s">
-        <v>82</v>
+      <c r="Q21" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="17" spans="3:18">
@@ -2356,11 +2356,11 @@
         <v>5</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" s="13">
         <v>500</v>
@@ -2372,25 +2372,25 @@
         <v>1</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M22" s="12">
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P22" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="R22" s="31" t="s">
-        <v>95</v>
+      <c r="Q22" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" ht="17" spans="3:18">
@@ -2401,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>41</v>
@@ -2419,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M23" s="12">
         <v>1</v>
@@ -2431,13 +2431,13 @@
         <v>44</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q23" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="R23" s="31" t="s">
-        <v>95</v>
+      <c r="Q23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" ht="17" spans="3:18">
@@ -2448,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>45</v>
@@ -2466,10 +2466,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M24" s="12">
         <v>2</v>
@@ -2478,13 +2478,13 @@
         <v>48</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q24" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="R24" s="31" t="s">
-        <v>95</v>
+      <c r="Q24" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="25" ht="17" spans="3:18">
@@ -2495,13 +2495,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H25" s="13">
         <v>500</v>
@@ -2513,10 +2513,10 @@
         <v>1</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M25" s="12">
         <v>3</v>
@@ -2525,13 +2525,13 @@
         <v>48</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="R25" s="31" t="s">
-        <v>95</v>
+      <c r="Q25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" ht="16.8" spans="3:20">
@@ -2545,10 +2545,10 @@
         <v>34</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H26" s="13">
         <v>2000</v>
@@ -2563,13 +2563,13 @@
         <v>36</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M26" s="3">
         <v>4</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P26" s="30" t="s">
         <v>39</v>
@@ -2591,13 +2591,13 @@
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="13">
         <v>2000</v>
@@ -2609,25 +2609,25 @@
         <v>1</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M27" s="3">
         <v>4</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="R27" s="31" t="s">
-        <v>56</v>
+      <c r="Q27" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="R27" s="30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="16.8" spans="3:18">
@@ -2638,13 +2638,13 @@
         <v>3</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H28" s="13">
         <v>2000</v>
@@ -2656,25 +2656,25 @@
         <v>1</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M28" s="3">
         <v>4</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P28" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q28" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="R28" s="31" t="s">
-        <v>69</v>
+      <c r="Q28" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" ht="17" spans="3:18">
@@ -2685,13 +2685,13 @@
         <v>4</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H29" s="13">
         <v>2000</v>
@@ -2703,25 +2703,25 @@
         <v>1</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M29" s="3">
         <v>4</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P29" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q29" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="R29" s="31" t="s">
-        <v>82</v>
+      <c r="Q29" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" s="30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" ht="17" spans="3:18">
@@ -2732,13 +2732,13 @@
         <v>5</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H30" s="13">
         <v>2000</v>
@@ -2750,25 +2750,25 @@
         <v>1</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M30" s="3">
         <v>4</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P30" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q30" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="R30" s="31" t="s">
-        <v>95</v>
+      <c r="Q30" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="R30" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22400"/>
+    <workbookView windowHeight="22320"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
     <t>Assets/Res/Audios/黑洞.wav</t>
   </si>
   <si>
-    <t>effect_heidong_shifang</t>
+    <t>fx_skill_heidong_baopo</t>
   </si>
   <si>
     <t>candy10_choco</t>
@@ -342,10 +342,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -390,18 +390,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,31 +421,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +447,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,18 +469,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,14 +499,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -505,9 +506,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,132 +558,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -691,24 +709,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,24 +733,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,13 +776,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,81 +806,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -903,82 +903,82 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,8 +1033,8 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="17" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1413,7 +1413,7 @@
   <dimension ref="C2:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G25 G53"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/Excel/DiamondTypeConfig.xlsx
+++ b/Excel/DiamondTypeConfig.xlsx
@@ -130,7 +130,7 @@
     <t>item_01</t>
   </si>
   <si>
-    <t>Assets/Res/Element/Elemenet_fire.prefab</t>
+    <t>Elemenet_fire</t>
   </si>
   <si>
     <t>火</t>
@@ -181,7 +181,7 @@
     <t>item_03</t>
   </si>
   <si>
-    <t>Assets/Res/Element/Elemenet_dark.prefab</t>
+    <t>Elemenet_dark</t>
   </si>
   <si>
     <t>暗</t>
@@ -220,7 +220,7 @@
     <t>item_04</t>
   </si>
   <si>
-    <t>Assets/Res/Element/Elemenet_water.prefab</t>
+    <t>Elemenet_water</t>
   </si>
   <si>
     <t>水</t>
@@ -259,7 +259,7 @@
     <t>item_05</t>
   </si>
   <si>
-    <t>Assets/Res/Element/Elemenet_wind.prefab</t>
+    <t>Elemenet_wind</t>
   </si>
   <si>
     <t>风</t>
@@ -298,7 +298,7 @@
     <t>item_06</t>
   </si>
   <si>
-    <t>Assets/Res/Element/Elemenet_light.prefab</t>
+    <t>Elemenet_light</t>
   </si>
   <si>
     <t>光</t>
@@ -328,7 +328,7 @@
     <t>Assets/Res/Audios/黑洞.wav</t>
   </si>
   <si>
-    <t>fx_skill_heidong_baopo</t>
+    <t>effect_heidong_shifang</t>
   </si>
   <si>
     <t>candy10_choco</t>
@@ -342,9 +342,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -390,17 +390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,8 +404,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -431,7 +436,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,6 +468,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -462,40 +491,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,13 +512,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -558,157 +558,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,8 +740,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,17 +761,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,21 +781,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,159 +805,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,8 +1412,8 @@
   <sheetPr/>
   <dimension ref="C2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1869,7 +1869,7 @@
       <c r="M11" s="22">
         <v>1</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="13" t="s">
         <v>44</v>
       </c>
       <c r="P11" s="30" t="s">
@@ -2055,7 +2055,7 @@
       <c r="M15" s="8">
         <v>1</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="13" t="s">
         <v>44</v>
       </c>
       <c r="P15" s="30" t="s">
@@ -2241,7 +2241,7 @@
       <c r="M19" s="10">
         <v>1</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="13" t="s">
         <v>44</v>
       </c>
       <c r="P19" s="30" t="s">
@@ -2427,7 +2427,7 @@
       <c r="M23" s="12">
         <v>1</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="13" t="s">
         <v>44</v>
       </c>
       <c r="P23" s="30" t="s">
